--- a/lista-buena.xlsx
+++ b/lista-buena.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="557">
   <si>
     <t>Nombre</t>
   </si>
@@ -25,24 +25,24 @@
     <t>CodigoHtml</t>
   </si>
   <si>
+    <t>ALINE EIDELSTEIN</t>
+  </si>
+  <si>
+    <t>CLAUDIA CHAVEZ</t>
+  </si>
+  <si>
+    <t>JUAN PABLO LANDA</t>
+  </si>
+  <si>
+    <t>BELÉN BILICIC</t>
+  </si>
+  <si>
+    <t>RODRIGO ROJAS</t>
+  </si>
+  <si>
     <t>FELIPE KRAMER</t>
   </si>
   <si>
-    <t>ALINE EIDELSTEIN</t>
-  </si>
-  <si>
-    <t>RODRIGO ROJAS</t>
-  </si>
-  <si>
-    <t>BELÉN BILICIC</t>
-  </si>
-  <si>
-    <t>JUAN PABLO LANDA</t>
-  </si>
-  <si>
-    <t>CLAUDIA CHAVEZ</t>
-  </si>
-  <si>
     <t>CLAIRE ROBIN</t>
   </si>
   <si>
@@ -52,43 +52,52 @@
     <t>FERNANDO OLIVA</t>
   </si>
   <si>
+    <t>GREGORIO MATURANA</t>
+  </si>
+  <si>
+    <t>SOFIA GONZALEZ</t>
+  </si>
+  <si>
+    <t>CARLOS GOMEZ</t>
+  </si>
+  <si>
+    <t>CATALINA PAVEZ</t>
+  </si>
+  <si>
+    <t>SEBASTIÁN GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>CONSTANZA ECHEVERRIA</t>
+  </si>
+  <si>
+    <t>IGNACIO MIER</t>
+  </si>
+  <si>
+    <t>JOAQUIN ORTEGA</t>
+  </si>
+  <si>
     <t>SEBASTIAN GONZALEZ</t>
   </si>
   <si>
+    <t>ACOMPAÑANTE GREGORIO MATURANA</t>
+  </si>
+  <si>
     <t>FELIPE MORAN</t>
   </si>
   <si>
-    <t>IGNACIO MIER</t>
-  </si>
-  <si>
-    <t>SEBASTIÁN GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>GREGORIO MATURANA</t>
-  </si>
-  <si>
-    <t>ACOMPAÑANTE GREGORIO MATURANA</t>
-  </si>
-  <si>
-    <t>CONSTANZA ECHEVERRIA</t>
-  </si>
-  <si>
-    <t>JOAQUIN ORTEGA</t>
-  </si>
-  <si>
-    <t>CATALINA PAVEZ</t>
-  </si>
-  <si>
-    <t>CARLOS GOMEZ</t>
-  </si>
-  <si>
-    <t>SOFIA GONZALEZ</t>
+    <t>EDUARDO CEBALLOS</t>
+  </si>
+  <si>
+    <t>CRISTIAN SUAZO</t>
+  </si>
+  <si>
+    <t>DADNIK BOSAN</t>
   </si>
   <si>
     <t>ANA CARVALLO</t>
   </si>
   <si>
-    <t>CRISTIAN SUAZO</t>
+    <t>IGNACIO TAGLE</t>
   </si>
   <si>
     <t>RODRIGO VERA</t>
@@ -100,96 +109,87 @@
     <t>ROMINA PEÑA</t>
   </si>
   <si>
-    <t>EDUARDO CEBALLOS</t>
-  </si>
-  <si>
-    <t>DADNIK BOSAN</t>
-  </si>
-  <si>
-    <t>IGNACIO TAGLE</t>
-  </si>
-  <si>
     <t>FERNANDA HURTADO</t>
   </si>
   <si>
+    <t>ISABELLE ROCHA</t>
+  </si>
+  <si>
+    <t>JOSEFA CATALAN</t>
+  </si>
+  <si>
+    <t>SERGIO HONORATO</t>
+  </si>
+  <si>
     <t>FRANCISCO VIVES</t>
   </si>
   <si>
-    <t>JOSEFA CATALAN</t>
-  </si>
-  <si>
-    <t>SERGIO HONORATO</t>
+    <t>SERGIO ALDUNATE</t>
+  </si>
+  <si>
+    <t>JOSEFA CATALÁN</t>
+  </si>
+  <si>
+    <t>CAROLINA ALDUNATE</t>
+  </si>
+  <si>
+    <t>ALEJANDRO PINOCHET</t>
+  </si>
+  <si>
+    <t>CAMILA VIVES</t>
   </si>
   <si>
     <t>JAIME FAJARDO</t>
   </si>
   <si>
-    <t>ISABELLE ROCHA</t>
-  </si>
-  <si>
-    <t>SERGIO ALDUNATE</t>
-  </si>
-  <si>
-    <t>JOSEFA CATALÁN</t>
-  </si>
-  <si>
-    <t>CAROLINA ALDUNATE</t>
-  </si>
-  <si>
-    <t>ALEJANDRO PINOCHET</t>
-  </si>
-  <si>
-    <t>CAMILA VIVES</t>
+    <t>MYRIAM HIDALGO</t>
+  </si>
+  <si>
+    <t>RAMON DELGADO</t>
+  </si>
+  <si>
+    <t>OXIEL SCHNEIDER</t>
+  </si>
+  <si>
+    <t>MARIO FUENTEALBA</t>
   </si>
   <si>
     <t>ROSITA SCHNEIDER</t>
   </si>
   <si>
-    <t>MYRIAM HIDALGO</t>
-  </si>
-  <si>
-    <t>OXIEL SCHNEIDER</t>
-  </si>
-  <si>
-    <t>MARIO FUENTEALBA</t>
-  </si>
-  <si>
     <t>JOAQUIN ZAÑARTU</t>
   </si>
   <si>
     <t>GLORIA ALVAREZ</t>
   </si>
   <si>
-    <t>RAMON DELGADO</t>
+    <t>GLORIA RIVAS</t>
   </si>
   <si>
     <t>MARIETINA ALVAREZ</t>
   </si>
   <si>
-    <t>GLORIA RIVAS</t>
+    <t>EDUARDO PUSCHEL</t>
+  </si>
+  <si>
+    <t>RODRIGO VALENZUELA</t>
+  </si>
+  <si>
+    <t>MARIO MORALES</t>
+  </si>
+  <si>
+    <t>DEBY HAICHELIS</t>
+  </si>
+  <si>
+    <t>CECILIA SEPULVEDA</t>
+  </si>
+  <si>
+    <t>BERNARDITA NIKLITSCHEK</t>
   </si>
   <si>
     <t>MONICA PIZARRO</t>
   </si>
   <si>
-    <t>BERNARDITA NIKLITSCHEK</t>
-  </si>
-  <si>
-    <t>DEBY HAICHELIS</t>
-  </si>
-  <si>
-    <t>RODRIGO VALENZUELA</t>
-  </si>
-  <si>
-    <t>CECILIA SEPULVEDA</t>
-  </si>
-  <si>
-    <t>EDUARDO PUSCHEL</t>
-  </si>
-  <si>
-    <t>MARIO MORALES</t>
-  </si>
-  <si>
     <t>ALBERT SCHNEIDER</t>
   </si>
   <si>
@@ -199,27 +199,27 @@
     <t>JENNY STONE</t>
   </si>
   <si>
+    <t>AGUSTIN CADIZ</t>
+  </si>
+  <si>
+    <t>MARÍA ANGÉLICA LAGOS</t>
+  </si>
+  <si>
+    <t>MONICA RAMIREZ</t>
+  </si>
+  <si>
+    <t>HORACIO GUTIERREZ</t>
+  </si>
+  <si>
+    <t>GALA SIDAY</t>
+  </si>
+  <si>
+    <t>MARIA ANGELICA LAGOS</t>
+  </si>
+  <si>
     <t>HUGO FERNANDEZ</t>
   </si>
   <si>
-    <t>MARÍA ANGÉLICA LAGOS</t>
-  </si>
-  <si>
-    <t>MONICA RAMIREZ</t>
-  </si>
-  <si>
-    <t>HORACIO GUTIERREZ</t>
-  </si>
-  <si>
-    <t>GALA SIDAY</t>
-  </si>
-  <si>
-    <t>MARIA ANGELICA LAGOS</t>
-  </si>
-  <si>
-    <t>AGUSTIN CADIZ</t>
-  </si>
-  <si>
     <t>JOAQUIN RUIZTAGLE</t>
   </si>
   <si>
@@ -280,28 +280,40 @@
     <t>SEBASTIAN DUARTE</t>
   </si>
   <si>
+    <t>NINON SCHNEIDER</t>
+  </si>
+  <si>
+    <t>FRANCISCA LAZO</t>
+  </si>
+  <si>
+    <t>AXEL SCHNEIDER</t>
+  </si>
+  <si>
+    <t>DEISY LIVINGSTON</t>
+  </si>
+  <si>
+    <t>VALENTINA PALAVICINO</t>
+  </si>
+  <si>
     <t>MARÍA JOSÉ LAZO</t>
   </si>
   <si>
-    <t>FRANCISCA LAZO</t>
-  </si>
-  <si>
-    <t>NINON SCHNEIDER</t>
+    <t>MARIA JOSE LAZO</t>
   </si>
   <si>
     <t>DANIEL PUSCHEL</t>
   </si>
   <si>
-    <t>VALENTINA PALAVICINO</t>
-  </si>
-  <si>
-    <t>DEISY LIVINGSTON</t>
-  </si>
-  <si>
-    <t>MARIA JOSE LAZO</t>
-  </si>
-  <si>
-    <t>AXEL SCHNEIDER</t>
+    <t>CLAUDIA URBINA</t>
+  </si>
+  <si>
+    <t>ROSA CUTIPA</t>
+  </si>
+  <si>
+    <t>MICHELLE MOLINA</t>
+  </si>
+  <si>
+    <t>DANIEL PALMA</t>
   </si>
   <si>
     <t>JESSICA MORALES</t>
@@ -310,108 +322,105 @@
     <t>GONZALO MONREAL</t>
   </si>
   <si>
-    <t>MICHELLE MOLINA</t>
-  </si>
-  <si>
-    <t>ROSA CUTIPA</t>
-  </si>
-  <si>
-    <t>DANIEL PALMA</t>
+    <t>MARCELO MORALES</t>
   </si>
   <si>
     <t>MILENE MORALES</t>
   </si>
   <si>
-    <t>MARCELO MORALES</t>
-  </si>
-  <si>
-    <t>CLAUDIA URBINA</t>
+    <t>JUAN PABLO DASZENIES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL SARMIENTO</t>
+  </si>
+  <si>
+    <t>VICTORIA ROSS</t>
+  </si>
+  <si>
+    <t>PAZ OBRETCH</t>
+  </si>
+  <si>
+    <t>FELIPE SKEWES</t>
+  </si>
+  <si>
+    <t>ARTURO CUEVAS</t>
+  </si>
+  <si>
+    <t>PABLO ELGUETA</t>
   </si>
   <si>
     <t>MARÍA JOSÉ GAMONAL</t>
   </si>
   <si>
-    <t>PABLO ELGUETA</t>
-  </si>
-  <si>
-    <t>ARTURO CUEVAS</t>
-  </si>
-  <si>
-    <t>FELIPE SKEWES</t>
-  </si>
-  <si>
-    <t>PAZ OBRETCH</t>
-  </si>
-  <si>
-    <t>VICTORIA ROSS</t>
-  </si>
-  <si>
-    <t>CRISTOBAL SARMIENTO</t>
+    <t>CHRISTIAN ACKERMANN</t>
   </si>
   <si>
     <t>MARIA JOSE GAMONAL</t>
   </si>
   <si>
-    <t>CHRISTIAN ACKERMANN</t>
-  </si>
-  <si>
-    <t>JUAN PABLO DASZENIES</t>
+    <t>MONICA DIAZ</t>
   </si>
   <si>
     <t>JAIME ILABACA</t>
   </si>
   <si>
+    <t>MÓNICA DÍAZ</t>
+  </si>
+  <si>
+    <t>DENICE MARKUSOVIC</t>
+  </si>
+  <si>
+    <t>CLAUDIO PIZZAGALLI</t>
+  </si>
+  <si>
+    <t>CARMEN GLORIA PONCE</t>
+  </si>
+  <si>
+    <t>GUSTAVO ROJAS</t>
+  </si>
+  <si>
     <t>LILIAN TURRI</t>
   </si>
   <si>
-    <t>GUSTAVO ROJAS</t>
-  </si>
-  <si>
-    <t>CARMEN GLORIA PONCE</t>
-  </si>
-  <si>
-    <t>CLAUDIO PIZZAGALLI</t>
-  </si>
-  <si>
-    <t>DENICE MARKUSOVIC</t>
-  </si>
-  <si>
-    <t>MÓNICA DÍAZ</t>
-  </si>
-  <si>
-    <t>MONICA DIAZ</t>
+    <t>LINA FARET</t>
+  </si>
+  <si>
+    <t>SERGIO LAZO</t>
+  </si>
+  <si>
+    <t>FELIPE PEREZ</t>
+  </si>
+  <si>
+    <t>SUSANA VALENZUELA</t>
+  </si>
+  <si>
+    <t>MARÍA ELENA DE LA SOTTA</t>
+  </si>
+  <si>
+    <t>EDUARDO TEUBER</t>
+  </si>
+  <si>
+    <t>MARIA ELENA DE LA SOTTA</t>
   </si>
   <si>
     <t>PATRICIA GONZALEZ</t>
   </si>
   <si>
-    <t>FELIPE PEREZ</t>
-  </si>
-  <si>
     <t>CHICHIN ALVAREZ</t>
   </si>
   <si>
-    <t>EDUARDO TEUBER</t>
-  </si>
-  <si>
-    <t>MARIA ELENA DE LA SOTTA</t>
-  </si>
-  <si>
-    <t>SUSANA VALENZUELA</t>
-  </si>
-  <si>
-    <t>SERGIO LAZO</t>
-  </si>
-  <si>
-    <t>LINA FARET</t>
-  </si>
-  <si>
     <t>MARIA ANGELICA RICCIARDI</t>
   </si>
   <si>
+    <t>SERGIO SILVA</t>
+  </si>
+  <si>
     <t>PATRICIO ROJAS</t>
   </si>
   <si>
+    <t>MARÍA ANGELICA RICCIARDI</t>
+  </si>
+  <si>
     <t>ELIZABETH BERLEC</t>
   </si>
   <si>
@@ -427,7 +436,10 @@
     <t>ASTRID KUPPER</t>
   </si>
   <si>
-    <t>SERGIO SILVA</t>
+    <t>DIEGO VEGA</t>
+  </si>
+  <si>
+    <t>CAROLINA GALLEGUILLOS</t>
   </si>
   <si>
     <t>AXEL DIAZ</t>
@@ -445,43 +457,46 @@
     <t>JONATHAN BURGOS</t>
   </si>
   <si>
-    <t>DIEGO VEGA</t>
-  </si>
-  <si>
-    <t>CAROLINA GALLEGUILLOS</t>
+    <t xml:space="preserve">GONZALO URZUA </t>
   </si>
   <si>
     <t>SIMON PEREZ</t>
   </si>
   <si>
+    <t>DAFNE SCHNEIDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALO URZÚA </t>
+  </si>
+  <si>
     <t>SIMÓN PÉREZ</t>
   </si>
   <si>
+    <t>FERNANDA ROTHMANN</t>
+  </si>
+  <si>
     <t>VICENTE LAZO</t>
   </si>
   <si>
     <t>PABLO SCHNEIDER</t>
   </si>
   <si>
-    <t xml:space="preserve">GONZALO URZUA </t>
-  </si>
-  <si>
-    <t>FERNANDA ROTHMANN</t>
-  </si>
-  <si>
-    <t>DAFNE SCHNEIDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALO URZÚA </t>
-  </si>
-  <si>
     <t>DENISE PANATT</t>
   </si>
   <si>
+    <t>CATALINA MAHNS</t>
+  </si>
+  <si>
     <t>EMILIA BERGOEING</t>
   </si>
   <si>
-    <t>CATALINA MAHNS</t>
+    <t>XIMENA DOIS</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS LLORENS</t>
+  </si>
+  <si>
+    <t>MARÍA EUGENIA BRIONES</t>
   </si>
   <si>
     <t>DANIEL PEREDA</t>
@@ -490,57 +505,57 @@
     <t>ALEJANDRA BIGNOTTI</t>
   </si>
   <si>
+    <t>MARIA EUGENIA BRIONES</t>
+  </si>
+  <si>
+    <t>JAIME ELGUETA</t>
+  </si>
+  <si>
     <t>CRISTIAN GONZALEZ</t>
   </si>
   <si>
-    <t>XIMENA DOIS</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS LLORENS</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA BRIONES</t>
-  </si>
-  <si>
     <t>BEATRIZ CORTINA</t>
   </si>
   <si>
-    <t>JAIME ELGUETA</t>
+    <t>RODRIGO VASQUEZ</t>
+  </si>
+  <si>
+    <t>CONSTANZA MOLINA</t>
+  </si>
+  <si>
+    <t>MONIQUE PETIT BREUILH</t>
+  </si>
+  <si>
+    <t>FELIPE MOLINA</t>
   </si>
   <si>
     <t>GISELA MOLINA</t>
   </si>
   <si>
+    <t>VICENTE MORALES</t>
+  </si>
+  <si>
     <t>ISIDORA PALMA</t>
   </si>
   <si>
-    <t>VICENTE MORALES</t>
+    <t>FLORENCIA PALMA</t>
   </si>
   <si>
     <t>SOFÍA MORALES</t>
   </si>
   <si>
-    <t>FELIPE MOLINA</t>
-  </si>
-  <si>
-    <t>MONIQUE PETIT BREUILH</t>
-  </si>
-  <si>
-    <t>CONSTANZA MOLINA</t>
-  </si>
-  <si>
-    <t>FLORENCIA PALMA</t>
-  </si>
-  <si>
-    <t>RODRIGO VASQUEZ</t>
-  </si>
-  <si>
     <t>SOFIA MORALES</t>
   </si>
   <si>
+    <t>PAREJA PAZ</t>
+  </si>
+  <si>
     <t>OSMAR SANCHEZ</t>
   </si>
   <si>
+    <t>LORENA VARGAS</t>
+  </si>
+  <si>
     <t>GABRIEL MIRANDA</t>
   </si>
   <si>
@@ -553,15 +568,9 @@
     <t>PAZ ALLENDE</t>
   </si>
   <si>
-    <t>PAREJA PAZ</t>
-  </si>
-  <si>
     <t>VICTOR ARANCIBIA</t>
   </si>
   <si>
-    <t>LORENA VARGAS</t>
-  </si>
-  <si>
     <t>JANAHINA BRAVO</t>
   </si>
   <si>
@@ -577,117 +586,123 @@
     <t>PATRICIO TAPIA</t>
   </si>
   <si>
+    <t>LORE GONZALEZ</t>
+  </si>
+  <si>
+    <t>FERNANDO VARGAS</t>
+  </si>
+  <si>
     <t>ROCÍO ARAYA</t>
   </si>
   <si>
-    <t>LORE GONZALEZ</t>
-  </si>
-  <si>
-    <t>FERNANDO VARGAS</t>
-  </si>
-  <si>
     <t>ROCIO ARAYA</t>
   </si>
   <si>
+    <t>GERARDO SANDOVAL</t>
+  </si>
+  <si>
+    <t>ISABELLA VISMARA</t>
+  </si>
+  <si>
+    <t>AIDAN MATTINGLY</t>
+  </si>
+  <si>
+    <t>MANUELA LABARCA</t>
+  </si>
+  <si>
+    <t>MARIANA STONE</t>
+  </si>
+  <si>
+    <t>SANTIAGO CABALLERO</t>
+  </si>
+  <si>
+    <t>FERNANDA MORALES</t>
+  </si>
+  <si>
     <t>EUGENIO MONREAL</t>
   </si>
   <si>
-    <t>ISABELLA VISMARA</t>
-  </si>
-  <si>
-    <t>AIDAN MATTINGLY</t>
-  </si>
-  <si>
-    <t>MANUELA LABARCA</t>
-  </si>
-  <si>
-    <t>MARIANA STONE</t>
-  </si>
-  <si>
-    <t>SANTIAGO CABALLERO</t>
-  </si>
-  <si>
-    <t>FERNANDA MORALES</t>
-  </si>
-  <si>
-    <t>GERARDO SANDOVAL</t>
-  </si>
-  <si>
     <t>DIEGO MORALES</t>
   </si>
   <si>
     <t>JOAQUIN ROJAS</t>
   </si>
   <si>
+    <t>BENJAMIN ROJAS</t>
+  </si>
+  <si>
     <t>VERONICA OLIVARES</t>
   </si>
   <si>
     <t>MARCO ROJAS</t>
   </si>
   <si>
+    <t>MICAELA BEBER</t>
+  </si>
+  <si>
+    <t>BENJAMÍN ROJAS</t>
+  </si>
+  <si>
+    <t>MAREN TRONES</t>
+  </si>
+  <si>
+    <t>JOAQUÍN ROJAS</t>
+  </si>
+  <si>
+    <t>ACOMPAÑANTE MARCO ROJAS</t>
+  </si>
+  <si>
     <t>VERÓNICA OLIVARES</t>
   </si>
   <si>
-    <t>MAREN TRONES</t>
-  </si>
-  <si>
-    <t>JOAQUÍN ROJAS</t>
-  </si>
-  <si>
-    <t>MICAELA BEBER</t>
-  </si>
-  <si>
-    <t>ACOMPAÑANTE MARCO ROJAS</t>
-  </si>
-  <si>
-    <t>BENJAMIN ROJAS</t>
+    <t>JOSE WALKER</t>
   </si>
   <si>
     <t>IGNACIA SARQUIS</t>
   </si>
   <si>
+    <t xml:space="preserve">MACARENA RUIZTAGLE </t>
+  </si>
+  <si>
+    <t>JOSÉ WALKER</t>
+  </si>
+  <si>
+    <t>CONSTANZA RUIZTAGLE</t>
+  </si>
+  <si>
+    <t>FELIPE CASTRO</t>
+  </si>
+  <si>
     <t>JAVIERA ARANEDA</t>
   </si>
   <si>
     <t>FRANCISCO URZUA</t>
   </si>
   <si>
-    <t>FELIPE CASTRO</t>
-  </si>
-  <si>
     <t>ALEJANDRA ZUÑIGA</t>
   </si>
   <si>
-    <t>JOSE WALKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACARENA RUIZTAGLE </t>
-  </si>
-  <si>
-    <t>CONSTANZA RUIZTAGLE</t>
-  </si>
-  <si>
     <t>MARCELO VILLANUEVA</t>
   </si>
   <si>
+    <t>PILAR NAVARRO</t>
+  </si>
+  <si>
+    <t>DIEGO EYZAGUIRRE</t>
+  </si>
+  <si>
     <t>FRANCISCA INOSTROZA</t>
   </si>
   <si>
-    <t>DIEGO EYZAGUIRRE</t>
-  </si>
-  <si>
-    <t>PILAR NAVARRO</t>
+    <t>MACARENA BENAVIDES</t>
+  </si>
+  <si>
+    <t>ALEJANDRO CEPEDA</t>
   </si>
   <si>
     <t>FELIPE MORENO</t>
   </si>
   <si>
-    <t>MACARENA BENAVIDES</t>
-  </si>
-  <si>
-    <t>ALEJANDRO CEPEDA</t>
-  </si>
-  <si>
     <t>NICOLE SABELLE</t>
   </si>
   <si>
@@ -700,57 +715,90 @@
     <t>ISABEL GONZALEZ</t>
   </si>
   <si>
+    <t>JUAN IGNACIO VILLASANTE</t>
+  </si>
+  <si>
+    <t>VALENTINA COX</t>
+  </si>
+  <si>
+    <t>ANTONIO RAMIREZ</t>
+  </si>
+  <si>
+    <t>MARÍA JOSÉ POBLETE</t>
+  </si>
+  <si>
+    <t>JORGE ESCOBAR</t>
+  </si>
+  <si>
+    <t>TRINIDAD ARANCIBIA</t>
+  </si>
+  <si>
+    <t>ENRIQUE ELSACA</t>
+  </si>
+  <si>
     <t>BERNARDO ECHAVARRI</t>
   </si>
   <si>
-    <t>TRINIDAD ARANCIBIA</t>
-  </si>
-  <si>
-    <t>ENRIQUE ELSACA</t>
-  </si>
-  <si>
-    <t>MARÍA JOSÉ POBLETE</t>
-  </si>
-  <si>
-    <t>ANTONIO RAMIREZ</t>
-  </si>
-  <si>
-    <t>VALENTINA COX</t>
-  </si>
-  <si>
-    <t>JUAN IGNACIO VILLASANTE</t>
-  </si>
-  <si>
-    <t>JORGE ESCOBAR</t>
+    <t>FRANCISCA MORALES</t>
+  </si>
+  <si>
+    <t>JACQUELINE SCHNEIDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGO MORALES </t>
+  </si>
+  <si>
+    <t>MARISOL STONE</t>
+  </si>
+  <si>
+    <t>CLAUDIO MORALES</t>
+  </si>
+  <si>
+    <t>CAROLA MUÑOZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE MORALES</t>
   </si>
   <si>
     <t>DOMINIQUE DENUNZIO</t>
   </si>
   <si>
-    <t>CLAUDIO MORALES</t>
-  </si>
-  <si>
-    <t>CAROLA MUÑOZ</t>
-  </si>
-  <si>
-    <t>MARISOL STONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUGO MORALES </t>
-  </si>
-  <si>
-    <t>JACQUELINE SCHNEIDER</t>
-  </si>
-  <si>
-    <t>FRANCISCA MORALES</t>
-  </si>
-  <si>
-    <t>CLEMENTE MORALES</t>
-  </si>
-  <si>
     <t>ANTONIO LOZADA</t>
   </si>
   <si>
+    <t>ANDREA DENUNZIO</t>
+  </si>
+  <si>
+    <t>TOMÁS ALCAYAGA</t>
+  </si>
+  <si>
+    <t>DANIELA MORALES</t>
+  </si>
+  <si>
+    <t>ZEINA ZUANIC</t>
+  </si>
+  <si>
+    <t>HUGO MORALES O</t>
+  </si>
+  <si>
+    <t>ALESSANDRO MORICO</t>
+  </si>
+  <si>
+    <t>VALENTÍN AVILES</t>
+  </si>
+  <si>
+    <t>IGNACIO MORALES</t>
+  </si>
+  <si>
+    <t>JAVIERA MORALES</t>
+  </si>
+  <si>
+    <t>RODRIGO AVILÉS</t>
+  </si>
+  <si>
+    <t>VALENTIN AVILES</t>
+  </si>
+  <si>
     <t>RODRIGO AVILES</t>
   </si>
   <si>
@@ -760,39 +808,9 @@
     <t>JOSE MORALES</t>
   </si>
   <si>
-    <t>TOMÁS ALCAYAGA</t>
-  </si>
-  <si>
-    <t>JAVIERA MORALES</t>
-  </si>
-  <si>
-    <t>RODRIGO AVILÉS</t>
-  </si>
-  <si>
-    <t>DANIELA MORALES</t>
-  </si>
-  <si>
     <t>VICENTE ITURRIAGA</t>
   </si>
   <si>
-    <t>IGNACIO MORALES</t>
-  </si>
-  <si>
-    <t>VALENTIN AVILES</t>
-  </si>
-  <si>
-    <t>ALESSANDRO MORICO</t>
-  </si>
-  <si>
-    <t>HUGO MORALES O</t>
-  </si>
-  <si>
-    <t>ZEINA ZUANIC</t>
-  </si>
-  <si>
-    <t>ANDREA DENUNZIO</t>
-  </si>
-  <si>
     <t>JOSÉ MORALES</t>
   </si>
   <si>
@@ -877,24 +895,24 @@
     <t>Mesa Novios</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALINE EIDELSTEIN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIA CHAVEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN PABLO LANDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;BELÉN BILICIC&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE KRAMER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALINE EIDELSTEIN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;BELÉN BILICIC&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN PABLO LANDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIA CHAVEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAIRE ROBIN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -904,43 +922,52 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDO OLIVA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 1&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GREGORIO MATURANA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SOFIA GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CARLOS GOMEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CATALINA PAVEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SEBASTIÁN GONZÁLEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CONSTANZA ECHEVERRIA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIO MIER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUIN ORTEGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;SEBASTIAN GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ACOMPAÑANTE GREGORIO MATURANA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE MORAN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIO MIER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SEBASTIÁN GONZÁLEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GREGORIO MATURANA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ACOMPAÑANTE GREGORIO MATURANA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CONSTANZA ECHEVERRIA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUIN ORTEGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CATALINA PAVEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CARLOS GOMEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SOFIA GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 10&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;EDUARDO CEBALLOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CRISTIAN SUAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DADNIK BOSAN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ANA CARVALLO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CRISTIAN SUAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIO TAGLE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO VERA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
@@ -952,96 +979,87 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ROMINA PEÑA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;EDUARDO CEBALLOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DADNIK BOSAN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIO TAGLE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDA HURTADO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 11&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ISABELLE ROCHA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSEFA CATALAN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO HONORATO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCO VIVES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSEFA CATALAN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO HONORATO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO ALDUNATE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSEFA CATALÁN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAROLINA ALDUNATE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALEJANDRO PINOCHET&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAMILA VIVES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JAIME FAJARDO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ISABELLE ROCHA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO ALDUNATE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSEFA CATALÁN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAROLINA ALDUNATE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALEJANDRO PINOCHET&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAMILA VIVES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 12&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MYRIAM HIDALGO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;RAMON DELGADO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;OXIEL SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIO FUENTEALBA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ROSITA SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MYRIAM HIDALGO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;OXIEL SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIO FUENTEALBA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUIN ZAÑARTU&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;GLORIA ALVAREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;RAMON DELGADO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GLORIA RIVAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIETINA ALVAREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GLORIA RIVAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 13&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;EDUARDO PUSCHEL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO VALENZUELA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DEBY HAICHELIS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CECILIA SEPULVEDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;BERNARDITA NIKLITSCHEK&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MONICA PIZARRO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;BERNARDITA NIKLITSCHEK&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DEBY HAICHELIS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO VALENZUELA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CECILIA SEPULVEDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;EDUARDO PUSCHEL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ALBERT SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 14&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1051,27 +1069,27 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JENNY STONE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;AGUSTIN CADIZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA ANGÉLICA LAGOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MONICA RAMIREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;HORACIO GUTIERREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GALA SIDAY&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA ANGELICA LAGOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;HUGO FERNANDEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA ANGÉLICA LAGOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MONICA RAMIREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;HORACIO GUTIERREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GALA SIDAY&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA ANGELICA LAGOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;AGUSTIN CADIZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 15&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUIN RUIZTAGLE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 16&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1132,28 +1150,40 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;SEBASTIAN DUARTE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;NINON SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCA LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;AXEL SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DEISY LIVINGSTON&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTINA PALAVICINO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA JOSÉ LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCA LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;NINON SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA JOSE LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;DANIEL PUSCHEL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTINA PALAVICINO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DEISY LIVINGSTON&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA JOSE LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;AXEL SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 18&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIA URBINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ROSA CUTIPA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MICHELLE MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DANIEL PALMA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JESSICA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
@@ -1162,108 +1192,105 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;GONZALO MONREAL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MICHELLE MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ROSA CUTIPA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DANIEL PALMA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARCELO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MILENE MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARCELO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIA URBINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 19&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN PABLO DASZENIES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CRISTOBAL SARMIENTO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;VICTORIA ROSS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;PAZ OBRETCH&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE SKEWES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ARTURO CUEVAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;PABLO ELGUETA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA JOSÉ GAMONAL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;PABLO ELGUETA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ARTURO CUEVAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE SKEWES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;PAZ OBRETCH&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;VICTORIA ROSS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CRISTOBAL SARMIENTO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CHRISTIAN ACKERMANN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA JOSE GAMONAL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CHRISTIAN ACKERMANN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN PABLO DASZENIES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 2&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MONICA DIAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JAIME ILABACA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MÓNICA DÍAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DENICE MARKUSOVIC&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIO PIZZAGALLI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CARMEN GLORIA PONCE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GUSTAVO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;LILIAN TURRI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GUSTAVO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CARMEN GLORIA PONCE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIO PIZZAGALLI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DENICE MARKUSOVIC&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MÓNICA DÍAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MONICA DIAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 20&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;LINA FARET&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE PEREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SUSANA VALENZUELA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA ELENA DE LA SOTTA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;EDUARDO TEUBER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA ELENA DE LA SOTTA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;PATRICIA GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE PEREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;CHICHIN ALVAREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;EDUARDO TEUBER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA ELENA DE LA SOTTA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SUSANA VALENZUELA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;LINA FARET&lt;/h3&gt;&lt;p id="born"&gt;Mesa 21&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA ANGELICA RICCIARDI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO SILVA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;PATRICIO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA ANGELICA RICCIARDI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ELIZABETH BERLEC&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1279,7 +1306,10 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ASTRID KUPPER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SERGIO SILVA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 22&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DIEGO VEGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 23&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAROLINA GALLEGUILLOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 23&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;AXEL DIAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 23&lt;/p&gt;&lt;/li&gt;</t>
@@ -1297,43 +1327,46 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JONATHAN BURGOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 23&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DIEGO VEGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 23&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAROLINA GALLEGUILLOS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 23&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GONZALO URZUA &lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;SIMON PEREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DAFNE SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GONZALO URZÚA &lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;SIMÓN PÉREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDA ROTHMANN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;VICENTE LAZO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;PABLO SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GONZALO URZUA &lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDA ROTHMANN&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DAFNE SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GONZALO URZÚA &lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;DENISE PANATT&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CATALINA MAHNS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;EMILIA BERGOEING&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CATALINA MAHNS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 24&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;XIMENA DOIS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN CARLOS LLORENS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA EUGENIA BRIONES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;DANIEL PEREDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
@@ -1342,57 +1375,57 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ALEJANDRA BIGNOTTI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA EUGENIA BRIONES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JAIME ELGUETA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;CRISTIAN GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;XIMENA DOIS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN CARLOS LLORENS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIA EUGENIA BRIONES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;BEATRIZ CORTINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JAIME ELGUETA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 25&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO VASQUEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CONSTANZA MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MONIQUE PETIT BREUILH&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;GISELA MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;VICENTE MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ISIDORA PALMA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;VICENTE MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FLORENCIA PALMA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;SOFÍA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MONIQUE PETIT BREUILH&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CONSTANZA MOLINA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FLORENCIA PALMA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO VASQUEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;SOFIA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 26&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;PAREJA PAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;OSMAR SANCHEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;LORENA VARGAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;GABRIEL MIRANDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1405,15 +1438,9 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;PAZ ALLENDE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;PAREJA PAZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;VICTOR ARANCIBIA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;LORENA VARGAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 3&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JANAHINA BRAVO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1429,120 +1456,126 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;PATRICIO TAPIA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;LORE GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDO VARGAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ROCÍO ARAYA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;LORE GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDO VARGAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ROCIO ARAYA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 4&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;GERARDO SANDOVAL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ISABELLA VISMARA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;AIDAN MATTINGLY&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MANUELA LABARCA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SEBASTIAN GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIANA STONE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;SANTIAGO CABALLERO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;EUGENIO MONREAL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ISABELLA VISMARA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;AIDAN MATTINGLY&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MANUELA LABARCA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SEBASTIAN GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARIANA STONE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;SANTIAGO CABALLERO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FERNANDA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;GERARDO SANDOVAL&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;DIEGO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 5&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUIN ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;BENJAMIN ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;VERONICA OLIVARES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARCO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MICAELA BEBER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;BENJAMÍN ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MAREN TRONES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUÍN ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ACOMPAÑANTE MARCO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;VERÓNICA OLIVARES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MAREN TRONES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOAQUÍN ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MICAELA BEBER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ACOMPAÑANTE MARCO ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;BENJAMIN ROJAS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 6&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSE WALKER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIA SARQUIS&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MACARENA RUIZTAGLE &lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSÉ WALKER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CONSTANZA RUIZTAGLE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE CASTRO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JAVIERA ARANEDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCO URZUA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE CASTRO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ALEJANDRA ZUÑIGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSE WALKER&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MACARENA RUIZTAGLE &lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CONSTANZA RUIZTAGLE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 7&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;MARCELO VILLANUEVA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;PILAR NAVARRO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DIEGO EYZAGUIRRE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCA INOSTROZA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DIEGO EYZAGUIRRE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;PILAR NAVARRO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MACARENA BENAVIDES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALEJANDRO CEPEDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;FELIPE MORENO&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MACARENA BENAVIDES&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALEJANDRO CEPEDA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;NICOLE SABELLE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 8&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1555,57 +1588,90 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ISABEL GONZALEZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN IGNACIO VILLASANTE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTINA COX&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ANTONIO RAMIREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA JOSÉ POBLETE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JORGE ESCOBAR&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;TRINIDAD ARANCIBIA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ENRIQUE ELSACA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;BERNARDO ECHAVARRI&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;TRINIDAD ARANCIBIA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ENRIQUE ELSACA&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARÍA JOSÉ POBLETE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ANTONIO RAMIREZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTINA COX&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JUAN IGNACIO VILLASANTE&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JORGE ESCOBAR&lt;/h3&gt;&lt;p id="born"&gt;Mesa 9&lt;/p&gt;&lt;/li&gt;</t>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JACQUELINE SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;HUGO MORALES &lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARISOL STONE&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAROLA MUÑOZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLEMENTE MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;DOMINIQUE DENUNZIO&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLAUDIO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CAROLA MUÑOZ&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;MARISOL STONE&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;HUGO MORALES &lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JACQUELINE SCHNEIDER&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;FRANCISCA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;CLEMENTE MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;ANTONIO LOZADA&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ANDREA DENUNZIO&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;TOMÁS ALCAYAGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;DANIELA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ZEINA ZUANIC&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;HUGO MORALES O&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALESSANDRO MORICO&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTÍN AVILES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;JAVIERA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO AVILÉS&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTIN AVILES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO AVILES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
@@ -1615,37 +1681,7 @@
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSE MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;TOMÁS ALCAYAGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;JAVIERA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;RODRIGO AVILÉS&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;DANIELA MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;VICENTE ITURRIAGA&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;IGNACIO MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;VALENTIN AVILES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ALESSANDRO MORICO&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;HUGO MORALES O&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ZEINA ZUANIC&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;h3 class="name"&gt;ANDREA DENUNZIO&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;h3 class="name"&gt;JOSÉ MORALES&lt;/h3&gt;&lt;p id="born"&gt;Mesa Novios&lt;/p&gt;&lt;/li&gt;</t>
@@ -2006,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,10 +2064,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2039,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2050,10 +2086,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2061,10 +2097,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2072,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2083,10 +2119,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2094,10 +2130,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2105,10 +2141,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2116,10 +2152,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2127,10 +2163,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2138,10 +2174,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,10 +2185,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2160,10 +2196,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2171,10 +2207,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2182,10 +2218,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2193,10 +2229,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2204,10 +2240,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2215,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2226,10 +2262,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2237,10 +2273,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2248,10 +2284,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2259,10 +2295,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2270,10 +2306,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2281,10 +2317,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2292,10 +2328,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2303,10 +2339,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2314,10 +2350,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2325,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2336,10 +2372,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2347,10 +2383,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2358,10 +2394,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2369,10 +2405,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2380,10 +2416,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2391,10 +2427,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2402,10 +2438,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2413,10 +2449,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2424,10 +2460,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2435,10 +2471,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2446,10 +2482,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2457,10 +2493,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2468,10 +2504,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2479,10 +2515,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2490,10 +2526,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2501,10 +2537,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2512,10 +2548,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2523,10 +2559,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2534,10 +2570,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2545,10 +2581,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2556,10 +2592,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2567,10 +2603,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2578,10 +2614,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2589,10 +2625,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C53" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2600,10 +2636,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C54" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2611,10 +2647,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2622,10 +2658,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2633,10 +2669,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2644,10 +2680,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2655,10 +2691,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2666,10 +2702,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2677,10 +2713,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2688,10 +2724,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2699,10 +2735,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2710,10 +2746,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2721,10 +2757,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2732,10 +2768,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2743,10 +2779,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2754,10 +2790,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2765,10 +2801,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2776,10 +2812,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2787,10 +2823,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2798,10 +2834,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2809,10 +2845,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2820,10 +2856,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2831,10 +2867,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2842,10 +2878,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2853,10 +2889,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2864,10 +2900,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2875,10 +2911,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2886,10 +2922,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C80" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2897,10 +2933,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2908,10 +2944,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C82" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2919,10 +2955,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2930,10 +2966,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C84" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2941,10 +2977,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2952,10 +2988,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2963,10 +2999,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2974,10 +3010,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2985,10 +3021,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C89" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2996,10 +3032,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3007,10 +3043,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C91" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3018,10 +3054,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3029,10 +3065,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3040,10 +3076,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C94" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3051,10 +3087,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3062,10 +3098,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3073,10 +3109,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3084,10 +3120,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3095,10 +3131,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3106,10 +3142,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3117,10 +3153,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3128,10 +3164,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C102" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3139,10 +3175,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3150,10 +3186,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C104" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3161,10 +3197,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C105" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3172,10 +3208,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C106" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3183,10 +3219,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3194,10 +3230,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3205,10 +3241,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3216,10 +3252,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3227,10 +3263,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C111" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3238,10 +3274,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C112" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3249,10 +3285,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C113" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3260,10 +3296,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C114" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3271,10 +3307,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C115" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3282,10 +3318,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3293,10 +3329,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3304,10 +3340,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3315,10 +3351,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3326,10 +3362,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C120" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3337,10 +3373,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3348,10 +3384,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3359,10 +3395,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3370,10 +3406,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C124" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3381,10 +3417,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3392,10 +3428,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3403,10 +3439,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3414,10 +3450,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C128" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3425,10 +3461,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C129" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3436,10 +3472,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3447,10 +3483,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3458,10 +3494,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3469,10 +3505,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C133" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3480,10 +3516,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3491,10 +3527,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C135" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3502,10 +3538,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3513,10 +3549,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3524,10 +3560,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C138" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3535,10 +3571,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3546,10 +3582,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C140" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3557,10 +3593,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3568,10 +3604,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C142" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3579,10 +3615,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C143" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3590,10 +3626,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3601,10 +3637,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3612,10 +3648,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3623,10 +3659,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C147" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3634,10 +3670,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C148" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3645,10 +3681,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C149" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3656,10 +3692,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C150" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3667,10 +3703,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C151" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3678,10 +3714,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C152" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3689,10 +3725,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C153" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3700,10 +3736,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C154" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3711,10 +3747,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C155" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3722,10 +3758,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C156" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3733,10 +3769,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3744,10 +3780,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C158" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3755,10 +3791,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C159" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3766,10 +3802,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C160" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3777,10 +3813,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C161" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3788,10 +3824,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C162" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3799,10 +3835,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C163" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3810,10 +3846,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C164" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3821,10 +3857,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C165" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3832,10 +3868,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C166" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3843,10 +3879,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C167" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3854,10 +3890,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C168" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3865,10 +3901,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C169" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3876,10 +3912,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C170" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3887,10 +3923,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C171" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3898,10 +3934,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C172" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3909,10 +3945,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C173" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3920,10 +3956,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C174" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3931,10 +3967,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C175" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3942,10 +3978,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C176" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3953,10 +3989,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3964,10 +4000,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C178" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3975,10 +4011,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C179" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3986,10 +4022,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C180" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3997,10 +4033,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C181" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4008,10 +4044,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C182" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4019,10 +4055,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C183" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4030,10 +4066,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C184" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4041,10 +4077,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C185" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4052,10 +4088,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C186" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4063,10 +4099,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C187" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4074,10 +4110,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4085,10 +4121,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C189" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4096,10 +4132,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4107,10 +4143,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4118,10 +4154,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C192" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4129,54 +4165,54 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C193" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C194" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C195" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C196" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C197" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4184,10 +4220,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C198" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4195,10 +4231,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C199" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4206,10 +4242,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4217,10 +4253,10 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C201" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4228,10 +4264,10 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C202" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4239,98 +4275,98 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C203" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C204" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C205" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C206" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C210" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C211" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4338,10 +4374,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C212" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4349,10 +4385,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C213" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4360,10 +4396,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C214" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4371,10 +4407,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C215" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4382,10 +4418,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C216" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4393,10 +4429,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C217" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4404,10 +4440,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C218" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4415,10 +4451,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C219" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4426,10 +4462,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C220" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4437,10 +4473,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C221" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4448,10 +4484,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C222" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4459,10 +4495,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C223" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4470,10 +4506,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C224" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4481,10 +4517,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C225" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4492,10 +4528,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C226" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4503,10 +4539,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C227" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4514,10 +4550,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C228" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4525,10 +4561,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C229" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4536,10 +4572,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C230" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4547,10 +4583,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C231" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4558,10 +4594,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C232" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4569,10 +4605,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C233" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4580,10 +4616,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C234" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4591,10 +4627,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C235" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4602,10 +4638,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C236" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4613,10 +4649,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C237" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4624,10 +4660,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C238" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4635,10 +4671,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C239" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4646,10 +4682,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C240" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4657,10 +4693,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C241" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4668,10 +4704,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C242" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4679,10 +4715,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C243" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4690,10 +4726,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C244" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4701,10 +4737,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C245" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4712,10 +4748,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C246" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4723,10 +4759,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C247" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4734,10 +4770,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C248" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4745,10 +4781,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C249" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4756,10 +4792,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C250" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4767,10 +4803,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C251" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4778,10 +4814,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C252" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4789,10 +4825,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C253" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4800,10 +4836,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C254" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4811,10 +4847,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C255" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4822,10 +4858,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C256" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4833,10 +4869,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C257" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4844,10 +4880,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C258" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4855,10 +4891,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C259" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4866,10 +4902,76 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s">
-        <v>544</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>292</v>
+      </c>
+      <c r="C261" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>292</v>
+      </c>
+      <c r="C262" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>292</v>
+      </c>
+      <c r="C263" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>292</v>
+      </c>
+      <c r="C264" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>292</v>
+      </c>
+      <c r="C265" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>292</v>
+      </c>
+      <c r="C266" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
